--- a/Final_Project_GM/Chicken/육계_차준호_20240910.xlsx
+++ b/Final_Project_GM/Chicken/육계_차준호_20240910.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="94">
   <si>
     <t>가축 종류</t>
   </si>
@@ -124,13 +124,6 @@
     <t> 전북 정읍시 감곡면</t>
   </si>
   <si>
-    <t>24cm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.17 kg</t>
-  </si>
-  <si>
     <t>적음</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -143,13 +136,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>25cm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.19 kg</t>
-  </si>
-  <si>
     <t>육계</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -162,10 +148,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1.2kg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>육계</t>
   </si>
   <si>
@@ -181,9 +163,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0.16 kg</t>
-  </si>
-  <si>
     <t>N</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -200,14 +179,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>22cm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1kg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>D009</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -224,26 +195,14 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>21cm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>D013</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>23cm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>D014</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>20cm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>D015</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -252,9 +211,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0.18 kg</t>
-  </si>
-  <si>
     <t>D017</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -271,18 +227,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1.3kg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>D022</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1kg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>D023</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -295,10 +243,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>26cm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>D026</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -327,14 +271,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>24cm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2kg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>적음</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -342,18 +278,6 @@
     <t>Mycoplasma (2024-09-01); E. coli (2024-09-01)</t>
   </si>
   <si>
-    <t>25cm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.3kg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>24cm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>N</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -378,10 +302,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1.1kg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>E. coli (2024-09-05)</t>
   </si>
   <si>
@@ -412,10 +332,6 @@
   </si>
   <si>
     <t>E. coli (2024-09-10)</t>
-  </si>
-  <si>
-    <t>1.3kg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Broiler (2024-09-15)</t>
@@ -830,7 +746,7 @@
   <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+      <selection activeCell="U29" sqref="U29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -923,7 +839,7 @@
         <v>24</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="AA1" s="3" t="s">
         <v>25</v>
@@ -931,13 +847,13 @@
     </row>
     <row r="2" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D2" s="6">
         <v>217111</v>
@@ -954,18 +870,18 @@
       <c r="H2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>87</v>
+      <c r="I2" s="6">
+        <v>24</v>
+      </c>
+      <c r="J2" s="6">
+        <v>1.2</v>
       </c>
       <c r="K2" s="7"/>
-      <c r="L2" s="6" t="s">
-        <v>35</v>
+      <c r="L2" s="6">
+        <v>0.17</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="N2" s="6">
         <v>40</v>
@@ -979,7 +895,7 @@
         <v>26</v>
       </c>
       <c r="S2" s="11" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="T2" s="8" t="s">
         <v>26</v>
@@ -990,7 +906,7 @@
       <c r="X2" s="7"/>
       <c r="Y2" s="6"/>
       <c r="Z2" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AA2" s="6"/>
     </row>
@@ -999,16 +915,16 @@
         <v>31</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D3" s="6">
         <v>217111</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>33</v>
@@ -1017,26 +933,26 @@
         <v>45292</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>91</v>
+        <v>43</v>
+      </c>
+      <c r="I3" s="6">
+        <v>25</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1.3</v>
       </c>
       <c r="K3" s="6"/>
-      <c r="L3" s="6" t="s">
-        <v>40</v>
+      <c r="L3" s="6">
+        <v>0.19</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N3" s="6">
         <v>40</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
@@ -1044,7 +960,7 @@
         <v>26</v>
       </c>
       <c r="S3" s="12" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
@@ -1053,25 +969,25 @@
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
       <c r="Z3" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AA3" s="6"/>
     </row>
     <row r="4" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D4" s="6">
         <v>217111</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>33</v>
@@ -1080,26 +996,26 @@
         <v>45293</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="I4" s="6">
+        <v>24</v>
+      </c>
+      <c r="J4" s="6">
+        <v>1.2</v>
       </c>
       <c r="K4" s="6"/>
-      <c r="L4" s="6" t="s">
-        <v>35</v>
+      <c r="L4" s="6">
+        <v>0.17</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="N4" s="6">
         <v>42</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
@@ -1107,7 +1023,7 @@
         <v>26</v>
       </c>
       <c r="S4" s="11" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
@@ -1116,25 +1032,25 @@
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AA4" s="6"/>
     </row>
     <row r="5" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="6">
+        <v>217111</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="D5" s="6">
-        <v>217111</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>33</v>
@@ -1143,17 +1059,17 @@
         <v>45293</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="I5" s="6">
+        <v>24</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1.2</v>
       </c>
       <c r="K5" s="6"/>
-      <c r="L5" s="6" t="s">
-        <v>35</v>
+      <c r="L5" s="6">
+        <v>0.17</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>29</v>
@@ -1162,7 +1078,7 @@
         <v>41</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
@@ -1170,7 +1086,7 @@
         <v>26</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
@@ -1179,25 +1095,25 @@
       <c r="X5" s="6"/>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AA5" s="6"/>
     </row>
     <row r="6" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D6" s="6">
         <v>217111</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>33</v>
@@ -1206,26 +1122,26 @@
         <v>45293</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="6">
+        <v>24</v>
+      </c>
+      <c r="J6" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="N6" s="6">
         <v>40</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
@@ -1233,7 +1149,7 @@
         <v>26</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
@@ -1242,25 +1158,25 @@
       <c r="X6" s="6"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AA6" s="6"/>
     </row>
     <row r="7" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D7" s="6">
         <v>217111</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>33</v>
@@ -1269,20 +1185,20 @@
         <v>45293</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="6">
+        <v>24</v>
+      </c>
+      <c r="J7" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="N7" s="6">
         <v>42</v>
@@ -1296,7 +1212,7 @@
         <v>26</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
@@ -1305,25 +1221,25 @@
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
       <c r="Z7" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AA7" s="6"/>
     </row>
     <row r="8" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D8" s="6">
         <v>217111</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>33</v>
@@ -1332,26 +1248,26 @@
         <v>45292</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="6">
+        <v>24</v>
+      </c>
+      <c r="J8" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="M8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="N8" s="6">
         <v>40</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
@@ -1359,36 +1275,36 @@
         <v>26</v>
       </c>
       <c r="S8" s="12" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="T8" s="6"/>
       <c r="U8" s="6" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
       <c r="Z8" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AA8" s="6"/>
     </row>
     <row r="9" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="6">
+        <v>217111</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="6">
-        <v>217111</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>33</v>
@@ -1399,24 +1315,24 @@
       <c r="H9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>99</v>
+      <c r="I9" s="6">
+        <v>22</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1.1000000000000001</v>
       </c>
       <c r="K9" s="6"/>
-      <c r="L9" s="6" t="s">
-        <v>49</v>
+      <c r="L9" s="6">
+        <v>0.16</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N9" s="6">
         <v>40</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
@@ -1424,7 +1340,7 @@
         <v>26</v>
       </c>
       <c r="S9" s="12" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
@@ -1433,25 +1349,25 @@
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AA9" s="6"/>
     </row>
     <row r="10" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D10" s="6">
         <v>217111</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>33</v>
@@ -1460,26 +1376,26 @@
         <v>45296</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="6">
+        <v>24</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="M10" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="N10" s="6">
         <v>42</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
@@ -1487,36 +1403,36 @@
         <v>26</v>
       </c>
       <c r="S10" s="12" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="T10" s="6"/>
       <c r="U10" s="6" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AA10" s="6"/>
     </row>
     <row r="11" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D11" s="6">
         <v>217111</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>33</v>
@@ -1525,26 +1441,26 @@
         <v>45297</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="6">
+        <v>24</v>
+      </c>
+      <c r="J11" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="M11" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="N11" s="6">
         <v>43</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
@@ -1552,7 +1468,7 @@
         <v>26</v>
       </c>
       <c r="S11" s="12" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
@@ -1561,25 +1477,25 @@
       <c r="X11" s="6"/>
       <c r="Y11" s="6"/>
       <c r="Z11" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AA11" s="6"/>
     </row>
     <row r="12" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D12" s="6">
         <v>217111</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>33</v>
@@ -1588,26 +1504,26 @@
         <v>45296</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="I12" s="6">
+        <v>24</v>
+      </c>
+      <c r="J12" s="6">
+        <v>1.2</v>
       </c>
       <c r="K12" s="6"/>
-      <c r="L12" s="6" t="s">
-        <v>35</v>
+      <c r="L12" s="6">
+        <v>0.17</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N12" s="6">
         <v>40</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
@@ -1615,36 +1531,36 @@
         <v>26</v>
       </c>
       <c r="S12" s="11" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="T12" s="6"/>
       <c r="U12" s="6" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
       <c r="Z12" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AA12" s="6"/>
     </row>
     <row r="13" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D13" s="6">
         <v>217111</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>33</v>
@@ -1653,26 +1569,26 @@
         <v>45299</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>55</v>
+        <v>43</v>
+      </c>
+      <c r="I13" s="6">
+        <v>21</v>
+      </c>
+      <c r="J13" s="6">
+        <v>1.1000000000000001</v>
       </c>
       <c r="K13" s="6"/>
-      <c r="L13" s="6" t="s">
-        <v>49</v>
+      <c r="L13" s="6">
+        <v>0.16</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N13" s="6">
         <v>40</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
@@ -1680,7 +1596,7 @@
         <v>26</v>
       </c>
       <c r="S13" s="12" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="T13" s="6"/>
       <c r="V13" s="6"/>
@@ -1688,25 +1604,25 @@
       <c r="X13" s="6"/>
       <c r="Y13" s="6"/>
       <c r="Z13" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AA13" s="6"/>
     </row>
     <row r="14" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D14" s="6">
         <v>217111</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>33</v>
@@ -1715,26 +1631,26 @@
         <v>45298</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="I14" s="6">
+        <v>23</v>
+      </c>
+      <c r="J14" s="6">
+        <v>1.2</v>
       </c>
       <c r="K14" s="6"/>
-      <c r="L14" s="6" t="s">
-        <v>35</v>
+      <c r="L14" s="6">
+        <v>0.17</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N14" s="6">
         <v>40</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
@@ -1742,36 +1658,36 @@
         <v>26</v>
       </c>
       <c r="S14" s="11" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="T14" s="6"/>
       <c r="U14" s="6" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
       <c r="Z14" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AA14" s="6"/>
     </row>
     <row r="15" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D15" s="6">
         <v>217111</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>33</v>
@@ -1780,26 +1696,26 @@
         <v>45299</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>55</v>
+        <v>43</v>
+      </c>
+      <c r="I15" s="6">
+        <v>20</v>
+      </c>
+      <c r="J15" s="6">
+        <v>1.1000000000000001</v>
       </c>
       <c r="K15" s="6"/>
-      <c r="L15" s="6" t="s">
-        <v>49</v>
+      <c r="L15" s="6">
+        <v>0.16</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N15" s="6">
         <v>42</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
@@ -1807,7 +1723,7 @@
         <v>26</v>
       </c>
       <c r="S15" s="12" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
@@ -1816,25 +1732,25 @@
       <c r="X15" s="6"/>
       <c r="Y15" s="6"/>
       <c r="Z15" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AA15" s="6"/>
     </row>
     <row r="16" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D16" s="6">
         <v>217111</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>33</v>
@@ -1843,26 +1759,26 @@
         <v>45296</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="I16" s="6">
+        <v>21</v>
+      </c>
+      <c r="J16" s="6">
+        <v>1.2</v>
       </c>
       <c r="K16" s="6"/>
-      <c r="L16" s="6" t="s">
-        <v>35</v>
+      <c r="L16" s="6">
+        <v>0.17</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N16" s="6">
         <v>42</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
@@ -1870,7 +1786,7 @@
         <v>26</v>
       </c>
       <c r="S16" s="12" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
@@ -1879,25 +1795,25 @@
       <c r="X16" s="6"/>
       <c r="Y16" s="6"/>
       <c r="Z16" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AA16" s="6"/>
     </row>
     <row r="17" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>51</v>
-      </c>
       <c r="D17" s="6">
         <v>217111</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>33</v>
@@ -1906,26 +1822,26 @@
         <v>45293</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="I17" s="6">
+        <v>22</v>
+      </c>
+      <c r="J17" s="6">
+        <v>1.2</v>
       </c>
       <c r="K17" s="6"/>
-      <c r="L17" s="6" t="s">
-        <v>67</v>
+      <c r="L17" s="6">
+        <v>0.18</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N17" s="6">
         <v>41</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
@@ -1933,7 +1849,7 @@
         <v>26</v>
       </c>
       <c r="S17" s="12" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
@@ -1942,25 +1858,25 @@
       <c r="X17" s="6"/>
       <c r="Y17" s="6"/>
       <c r="Z17" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AA17" s="6"/>
     </row>
     <row r="18" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D18" s="6">
         <v>217111</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>33</v>
@@ -1969,26 +1885,26 @@
         <v>45293</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="I18" s="6">
+        <v>22</v>
+      </c>
+      <c r="J18" s="6">
+        <v>1.2</v>
       </c>
       <c r="K18" s="6"/>
-      <c r="L18" s="6" t="s">
-        <v>67</v>
+      <c r="L18" s="6">
+        <v>0.18</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N18" s="6">
         <v>41</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
@@ -1996,7 +1912,7 @@
         <v>26</v>
       </c>
       <c r="S18" s="12" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
@@ -2005,25 +1921,25 @@
       <c r="X18" s="6"/>
       <c r="Y18" s="6"/>
       <c r="Z18" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AA18" s="6"/>
     </row>
     <row r="19" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D19" s="6">
         <v>217111</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>33</v>
@@ -2032,20 +1948,20 @@
         <v>45293</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="I19" s="6">
+        <v>23</v>
+      </c>
+      <c r="J19" s="6">
+        <v>1.2</v>
       </c>
       <c r="K19" s="6"/>
-      <c r="L19" s="6" t="s">
-        <v>67</v>
+      <c r="L19" s="6">
+        <v>0.18</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N19" s="6">
         <v>42</v>
@@ -2059,7 +1975,7 @@
         <v>26</v>
       </c>
       <c r="S19" s="12" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
@@ -2068,25 +1984,25 @@
       <c r="X19" s="6"/>
       <c r="Y19" s="6"/>
       <c r="Z19" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AA19" s="6"/>
     </row>
     <row r="20" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D20" s="6">
         <v>217111</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>33</v>
@@ -2095,26 +2011,26 @@
         <v>45295</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="I20" s="6">
+        <v>23</v>
+      </c>
+      <c r="J20" s="6">
+        <v>1.2</v>
       </c>
       <c r="K20" s="6"/>
-      <c r="L20" s="6" t="s">
-        <v>67</v>
+      <c r="L20" s="6">
+        <v>0.18</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N20" s="6">
         <v>40</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
@@ -2122,7 +2038,7 @@
         <v>26</v>
       </c>
       <c r="S20" s="12" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
@@ -2131,25 +2047,25 @@
       <c r="X20" s="6"/>
       <c r="Y20" s="6"/>
       <c r="Z20" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AA20" s="6"/>
     </row>
     <row r="21" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D21" s="6">
         <v>217111</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>33</v>
@@ -2158,26 +2074,26 @@
         <v>45297</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="I21" s="6">
+        <v>21</v>
+      </c>
+      <c r="J21" s="6">
+        <v>1.1000000000000001</v>
       </c>
       <c r="K21" s="6"/>
-      <c r="L21" s="6" t="s">
-        <v>35</v>
+      <c r="L21" s="6">
+        <v>0.17</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N21" s="6">
         <v>42</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
@@ -2185,7 +2101,7 @@
         <v>26</v>
       </c>
       <c r="S21" s="12" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
@@ -2194,25 +2110,25 @@
       <c r="X21" s="6"/>
       <c r="Y21" s="6"/>
       <c r="Z21" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AA21" s="6"/>
     </row>
     <row r="22" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D22" s="6">
         <v>217111</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>33</v>
@@ -2221,26 +2137,26 @@
         <v>45292</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I22" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="6">
+        <v>24</v>
+      </c>
+      <c r="J22" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="M22" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="N22" s="6">
         <v>43</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
@@ -2248,11 +2164,11 @@
         <v>26</v>
       </c>
       <c r="S22" s="11" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="T22" s="6"/>
       <c r="U22" s="6" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
@@ -2265,19 +2181,19 @@
     </row>
     <row r="23" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D23" s="6">
         <v>217111</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>33</v>
@@ -2286,26 +2202,26 @@
         <v>45299</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>74</v>
+        <v>47</v>
+      </c>
+      <c r="I23" s="6">
+        <v>20</v>
+      </c>
+      <c r="J23" s="6">
+        <v>1</v>
       </c>
       <c r="K23" s="6"/>
-      <c r="L23" s="6" t="s">
-        <v>35</v>
+      <c r="L23" s="6">
+        <v>0.17</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N23" s="6">
         <v>40</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
@@ -2313,7 +2229,7 @@
         <v>26</v>
       </c>
       <c r="S23" s="12" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
@@ -2322,25 +2238,25 @@
       <c r="X23" s="6"/>
       <c r="Y23" s="6"/>
       <c r="Z23" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AA23" s="6"/>
     </row>
     <row r="24" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D24" s="6">
         <v>217111</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>33</v>
@@ -2349,26 +2265,26 @@
         <v>45300</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>74</v>
+        <v>47</v>
+      </c>
+      <c r="I24" s="6">
+        <v>22</v>
+      </c>
+      <c r="J24" s="6">
+        <v>1</v>
       </c>
       <c r="K24" s="6"/>
-      <c r="L24" s="6" t="s">
-        <v>35</v>
+      <c r="L24" s="6">
+        <v>0.17</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N24" s="6">
         <v>42</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
@@ -2376,7 +2292,7 @@
         <v>26</v>
       </c>
       <c r="S24" s="12" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
@@ -2385,25 +2301,25 @@
       <c r="X24" s="6"/>
       <c r="Y24" s="6"/>
       <c r="Z24" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AA24" s="6"/>
     </row>
     <row r="25" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D25" s="6">
         <v>217111</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>33</v>
@@ -2412,26 +2328,26 @@
         <v>45299</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>74</v>
+        <v>43</v>
+      </c>
+      <c r="I25" s="6">
+        <v>21</v>
+      </c>
+      <c r="J25" s="6">
+        <v>1</v>
       </c>
       <c r="K25" s="6"/>
-      <c r="L25" s="6" t="s">
-        <v>67</v>
+      <c r="L25" s="6">
+        <v>0.18</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N25" s="6">
         <v>41</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
@@ -2439,7 +2355,7 @@
         <v>26</v>
       </c>
       <c r="S25" s="12" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
@@ -2448,25 +2364,25 @@
       <c r="X25" s="6"/>
       <c r="Y25" s="6"/>
       <c r="Z25" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AA25" s="6"/>
     </row>
     <row r="26" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D26" s="6">
         <v>217111</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>33</v>
@@ -2475,26 +2391,26 @@
         <v>45292</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>72</v>
+        <v>43</v>
+      </c>
+      <c r="I26" s="6">
+        <v>26</v>
+      </c>
+      <c r="J26" s="6">
+        <v>1.3</v>
       </c>
       <c r="K26" s="6"/>
-      <c r="L26" s="6" t="s">
-        <v>40</v>
+      <c r="L26" s="6">
+        <v>0.19</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N26" s="6">
         <v>42</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
@@ -2502,7 +2418,7 @@
         <v>26</v>
       </c>
       <c r="S26" s="12" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
@@ -2511,25 +2427,25 @@
       <c r="X26" s="6"/>
       <c r="Y26" s="6"/>
       <c r="Z26" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AA26" s="6"/>
     </row>
     <row r="27" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D27" s="6">
         <v>217111</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>33</v>
@@ -2538,26 +2454,26 @@
         <v>45293</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I27" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I27" s="6">
+        <v>24</v>
+      </c>
+      <c r="J27" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="M27" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J27" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="N27" s="6">
         <v>41</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
@@ -2565,7 +2481,7 @@
         <v>26</v>
       </c>
       <c r="S27" s="12" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
@@ -2574,25 +2490,25 @@
       <c r="X27" s="6"/>
       <c r="Y27" s="6"/>
       <c r="Z27" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AA27" s="6"/>
     </row>
     <row r="28" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D28" s="6">
         <v>217111</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>33</v>
@@ -2601,26 +2517,26 @@
         <v>45293</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>72</v>
+        <v>43</v>
+      </c>
+      <c r="I28" s="6">
+        <v>25</v>
+      </c>
+      <c r="J28" s="6">
+        <v>1.3</v>
       </c>
       <c r="K28" s="6"/>
-      <c r="L28" s="6" t="s">
-        <v>40</v>
+      <c r="L28" s="6">
+        <v>0.19</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N28" s="6">
         <v>42</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
@@ -2628,7 +2544,7 @@
         <v>26</v>
       </c>
       <c r="S28" s="11" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
@@ -2637,25 +2553,25 @@
       <c r="X28" s="6"/>
       <c r="Y28" s="6"/>
       <c r="Z28" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AA28" s="6"/>
     </row>
     <row r="29" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D29" s="6">
         <v>217111</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>33</v>
@@ -2664,26 +2580,26 @@
         <v>45297</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>74</v>
+        <v>43</v>
+      </c>
+      <c r="I29" s="6">
+        <v>22</v>
+      </c>
+      <c r="J29" s="6">
+        <v>1</v>
       </c>
       <c r="K29" s="6"/>
-      <c r="L29" s="6" t="s">
-        <v>35</v>
+      <c r="L29" s="6">
+        <v>0.17</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N29" s="6">
         <v>40</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
@@ -2691,7 +2607,7 @@
         <v>26</v>
       </c>
       <c r="S29" s="12" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
@@ -2700,25 +2616,25 @@
       <c r="X29" s="6"/>
       <c r="Y29" s="6"/>
       <c r="Z29" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AA29" s="6"/>
     </row>
     <row r="30" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D30" s="6">
         <v>217111</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>33</v>
@@ -2727,26 +2643,26 @@
         <v>45296</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I30" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30" s="6">
+        <v>24</v>
+      </c>
+      <c r="J30" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="M30" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J30" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="N30" s="6">
         <v>41</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
@@ -2754,7 +2670,7 @@
         <v>26</v>
       </c>
       <c r="S30" s="12" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
@@ -2763,25 +2679,25 @@
       <c r="X30" s="6"/>
       <c r="Y30" s="6"/>
       <c r="Z30" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AA30" s="6"/>
     </row>
     <row r="31" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D31" s="6">
         <v>217111</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>33</v>
@@ -2790,26 +2706,26 @@
         <v>45297</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>55</v>
+        <v>43</v>
+      </c>
+      <c r="I31" s="6">
+        <v>23</v>
+      </c>
+      <c r="J31" s="6">
+        <v>1.1000000000000001</v>
       </c>
       <c r="K31" s="6"/>
-      <c r="L31" s="6" t="s">
-        <v>35</v>
+      <c r="L31" s="6">
+        <v>0.17</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N31" s="6">
         <v>41</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
@@ -2817,18 +2733,18 @@
         <v>26</v>
       </c>
       <c r="S31" s="12" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="T31" s="6"/>
       <c r="U31" s="6" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="V31" s="6"/>
       <c r="W31" s="6"/>
       <c r="X31" s="6"/>
       <c r="Y31" s="6"/>
       <c r="Z31" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AA31" s="6"/>
     </row>
